--- a/static/Foods.xlsx
+++ b/static/Foods.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salon\Desktop\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rushi/PycharmProjects/HCIProject/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{0DCF3124-89C5-4F41-989F-AB7C7CAA70CE}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -50,28 +56,28 @@
     <t>Potatoes</t>
   </si>
   <si>
-    <t>pastry</t>
-  </si>
-  <si>
-    <t>pasta</t>
-  </si>
-  <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>chips</t>
-  </si>
-  <si>
     <t>Salad</t>
   </si>
   <si>
     <t>Glucose</t>
+  </si>
+  <si>
+    <t>Pastry</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Chips</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,16 +422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767AD4A8-1F51-4A29-BE1B-B3B817B40D4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -447,7 +453,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -458,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -469,7 +475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -480,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -491,7 +497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -502,9 +508,9 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -513,9 +519,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1200</v>
@@ -524,9 +530,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>4600</v>
@@ -535,9 +541,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -546,9 +552,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>2300</v>
